--- a/data/trans_bre/P19C02-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P19C02-Estudios-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>4.556512260417928</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>10.02054376493268</v>
+        <v>10.02054376493269</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>-0.02190377481739609</v>
@@ -649,7 +649,7 @@
         <v>0.2224397686849816</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0.436927461929717</v>
+        <v>0.4369274619297173</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-4.485497667182615</v>
+        <v>-4.354301082495088</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>2.147292071650931</v>
+        <v>1.891210670184518</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-0.3734003040915371</v>
+        <v>-0.2823224783592692</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>5.164762241537479</v>
+        <v>5.521272949612373</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.2304237384533617</v>
+        <v>-0.2219230513370009</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1146281829325062</v>
+        <v>0.1067459030006703</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.01580654922529151</v>
+        <v>-0.008245667015955365</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>0.1945019927107689</v>
+        <v>0.2129481286571124</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>3.303881958826163</v>
+        <v>3.407774845782424</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>9.378869592463763</v>
+        <v>9.351139904061849</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>9.548605070009469</v>
+        <v>9.557421306469294</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>13.95678504606803</v>
+        <v>14.23100225299907</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.2255383226730306</v>
+        <v>0.2309497770771645</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.7297985376385915</v>
+        <v>0.7064978563489012</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.5405416350329832</v>
+        <v>0.5684417851609923</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.6796636741695187</v>
+        <v>0.7153486998174646</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>4.375891654941322</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>2.573190607968701</v>
+        <v>2.573190607968712</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.09765906495804676</v>
@@ -749,7 +749,7 @@
         <v>0.1248449211921007</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>0.05239507136037859</v>
+        <v>0.05239507136037881</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-0.8259503677399851</v>
+        <v>-0.8515726549214561</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-0.9349728587521351</v>
+        <v>-0.9649346454248448</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.7045919624681479</v>
+        <v>0.7935699977744672</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-0.6786837681385983</v>
+        <v>-0.6374823908074683</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.02480862952932781</v>
+        <v>-0.0266491281334216</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.02713960236610682</v>
+        <v>-0.02862285216614002</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.01977686113105936</v>
+        <v>0.02151296628415349</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.0131336382743535</v>
+        <v>-0.01243492518186111</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>6.973347236575486</v>
+        <v>6.468042707785547</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>5.855142140929475</v>
+        <v>6.134874922301718</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>7.304102289566687</v>
+        <v>7.588207574097162</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>5.956549877811003</v>
+        <v>5.701407309118635</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.2382040479186579</v>
+        <v>0.2246132684328501</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1833949472674252</v>
+        <v>0.1925425161414559</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2178101972825379</v>
+        <v>0.2277662901073231</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.1244983824770666</v>
+        <v>0.1200442201049809</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>-2.321140070179173</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>-2.712586111576343</v>
+        <v>-2.712586111576365</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.06564635004535417</v>
@@ -849,7 +849,7 @@
         <v>-0.04867588864134525</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>-0.04550308696828816</v>
+        <v>-0.04550308696828852</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-4.423433727856153</v>
+        <v>-3.998048694440748</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-6.723396731910998</v>
+        <v>-6.413639393688713</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-9.049320092883592</v>
+        <v>-8.46827863084996</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-8.16197409222395</v>
+        <v>-7.442450932403494</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.1024955901077644</v>
+        <v>-0.09442894948263558</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.1473510988706054</v>
+        <v>-0.1422243290969738</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.1777866369682224</v>
+        <v>-0.1636516031145687</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.1317068795705958</v>
+        <v>-0.1203788348356285</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>9.660344167855239</v>
+        <v>9.914949429207951</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>7.554079705876443</v>
+        <v>8.30703255509331</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>4.044786583786493</v>
+        <v>4.565882071048684</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>2.396210829043655</v>
+        <v>2.749548483701507</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.2625410390107317</v>
+        <v>0.2715065187161259</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1996483430587567</v>
+        <v>0.2202978608360229</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.09069198846799975</v>
+        <v>0.102269608400777</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.0415425816304761</v>
+        <v>0.04826049681517038</v>
       </c>
     </row>
     <row r="13">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-1.850397465644256</v>
+        <v>-2.251481011097993</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-0.774578246121094</v>
+        <v>-0.8590489935563578</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-0.3382695447557759</v>
+        <v>-0.4178402924268341</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-0.6719763644283415</v>
+        <v>-0.7976612972893551</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.06415157600126103</v>
+        <v>-0.07417391110204874</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.02641499042081513</v>
+        <v>-0.02657026348988038</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.0100089702807784</v>
+        <v>-0.01167859744940979</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.01368521030764268</v>
+        <v>-0.01640753523809273</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>3.094267838797249</v>
+        <v>2.873342698774781</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>4.179608172518767</v>
+        <v>4.021680815465309</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>4.895248863154244</v>
+        <v>5.317452376249665</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>4.023922289871584</v>
+        <v>3.835477416085828</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.1112612824179293</v>
+        <v>0.1040246949864639</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.1472792365215578</v>
+        <v>0.1431186815079449</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.1450951722711948</v>
+        <v>0.1568990724197468</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.08876438047442302</v>
+        <v>0.0837931321110706</v>
       </c>
     </row>
     <row r="16">
